--- a/basetable.xlsx
+++ b/basetable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>表名</t>
   </si>
@@ -35,6 +35,21 @@
   <si>
     <t>长度</t>
   </si>
+  <si>
+    <t>是否主键</t>
+  </si>
+  <si>
+    <t>是否自增</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>允许为空</t>
+  </si>
+  <si>
+    <t>唯一</t>
+  </si>
 </sst>
 </file>
 
@@ -42,14 +57,58 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -63,46 +122,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,15 +162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,21 +177,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,52 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,11 +426,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,11 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,30 +496,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,154 +519,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1008,36 +1019,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/basetable.xlsx
+++ b/basetable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="26775" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>表名</t>
   </si>
@@ -36,19 +36,148 @@
     <t>长度</t>
   </si>
   <si>
-    <t>是否主键</t>
-  </si>
-  <si>
-    <t>是否自增</t>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>自增</t>
   </si>
   <si>
     <t>索引</t>
   </si>
   <si>
-    <t>允许为空</t>
+    <t>不为空</t>
   </si>
   <si>
     <t>唯一</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>媒婆</t>
+  </si>
+  <si>
+    <t>FMatchMaker</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>HeadImg</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>店铺资质</t>
+  </si>
+  <si>
+    <t>ShopNature</t>
+  </si>
+  <si>
+    <t>职业/公司名</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>微信二维码</t>
+  </si>
+  <si>
+    <t>QrCode</t>
+  </si>
+  <si>
+    <t>省地址</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>市地址</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>区地址</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>详细地址</t>
+  </si>
+  <si>
+    <t>DetailAddress</t>
+  </si>
+  <si>
+    <t>入驻日期</t>
+  </si>
+  <si>
+    <t>AddTime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>论坛ID</t>
+  </si>
+  <si>
+    <t>MinisnsId</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>OpenID</t>
+  </si>
+  <si>
+    <t>OpenId</t>
+  </si>
+  <si>
+    <t>OpenID2</t>
+  </si>
+  <si>
+    <t>OpenId2</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -56,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -71,21 +200,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,121 +342,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,43 +352,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,139 +472,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,46 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,8 +579,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +620,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,139 +663,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1032,16 +1164,16 @@
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="6" max="7" width="21.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.625" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,6 +1206,282 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/basetable.xlsx
+++ b/basetable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>表名0</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>显示条件14</t>
+  </si>
+  <si>
+    <t>表单类型：（1文本框，2下拉列表，3按钮，4图片） 15</t>
   </si>
   <si>
     <t>引导记录表</t>
@@ -134,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,12 +152,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,17 +173,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +211,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,90 +294,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -301,13 +304,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,6 +436,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,157 +472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +505,54 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,8 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,54 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,142 +615,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,12 +1103,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1111,20 +1117,21 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,94 +1176,97 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="3:9">
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:6">
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>11</v>
@@ -1264,13 +1274,13 @@
     </row>
     <row r="7" spans="3:6">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -1278,24 +1288,24 @@
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>11</v>
